--- a/rajawijaya/Web Invoice.xlsx
+++ b/rajawijaya/Web Invoice.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A8F6A-459B-430F-8A7A-8869823AC483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170107B-7767-441A-B135-AFF85FCF2DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
-    <sheet name="Statement" sheetId="4" r:id="rId2"/>
-    <sheet name="Document" sheetId="2" r:id="rId3"/>
-    <sheet name="Database" sheetId="3" r:id="rId4"/>
+    <sheet name="Statement" sheetId="4" r:id="rId1"/>
+    <sheet name="Document" sheetId="2" r:id="rId2"/>
+    <sheet name="Database" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="ColumnTitle1">SimpleInvoice[[#Headers],[Item '#]]</definedName>
-    <definedName name="company_name">Invoice!$B$1</definedName>
+    <definedName name="ColumnTitle1">[1]!SimpleInvoice[[#Headers],[Item '#]]</definedName>
+    <definedName name="company_name">[1]Invoice_1st!$B$1</definedName>
     <definedName name="Customer_ID">Statement!$C$7</definedName>
     <definedName name="Customer_Name">Statement!$G$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Invoice!$8:$8</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Statement!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Statement!$9:$9</definedName>
     <definedName name="Remittance_Amount">Statement!$D$8</definedName>
-    <definedName name="RowTitleRegion1..C7">Invoice!$B$4</definedName>
+    <definedName name="RowTitleRegion1..C7">[1]Invoice_1st!$B$4</definedName>
     <definedName name="RowTitleRegion1..G4">Statement!$E$2</definedName>
     <definedName name="RowTitleRegion2..C8">Statement!$B$5</definedName>
-    <definedName name="RowTitleRegion2..G5">Invoice!$F$4</definedName>
-    <definedName name="RowTitleRegion3..G26">Invoice!$F$16</definedName>
+    <definedName name="RowTitleRegion2..G5">[1]Invoice_1st!$G$4</definedName>
+    <definedName name="RowTitleRegion3..G26">[1]Invoice_1st!$G$15</definedName>
     <definedName name="Statement_Date">Statement!$C$6</definedName>
     <definedName name="Statement_Number">Statement!$C$5</definedName>
     <definedName name="Title1">Invoice[[#Headers],[Date]]</definedName>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
-  <si>
-    <t>TOTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Description</t>
   </si>
@@ -50,57 +48,6 @@
     <t>Address:</t>
   </si>
   <si>
-    <t>Deposit Received</t>
-  </si>
-  <si>
-    <t>Invoice Subtotal</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Item #</t>
-  </si>
-  <si>
-    <t>Dzulfikri's Company</t>
-  </si>
-  <si>
-    <t>Hosting 1 tahun + domain</t>
-  </si>
-  <si>
-    <t>Template Tampilan antarmuka</t>
-  </si>
-  <si>
-    <t>Fitur program</t>
-  </si>
-  <si>
-    <t>Jaminan Revisi</t>
-  </si>
-  <si>
-    <t>Jasa pembuatan website</t>
-  </si>
-  <si>
-    <t>Integrasi Database</t>
-  </si>
-  <si>
     <t>Fitur</t>
   </si>
   <si>
@@ -251,54 +198,9 @@
     <t>Amount Enclosed:</t>
   </si>
   <si>
-    <t>Raja Adhi wijaya Cirebon</t>
-  </si>
-  <si>
     <t>Cirebon</t>
   </si>
   <si>
-    <t xml:space="preserve">Invoice #: </t>
-  </si>
-  <si>
-    <t>11102021-01</t>
-  </si>
-  <si>
-    <t>Invoice Date:</t>
-  </si>
-  <si>
-    <t>Pembuatan website company profile</t>
-  </si>
-  <si>
-    <t>Address :</t>
-  </si>
-  <si>
-    <t>Majalengka</t>
-  </si>
-  <si>
-    <t>City, State ZIP Code :</t>
-  </si>
-  <si>
-    <t>Cikijing - Majalengka, 45466</t>
-  </si>
-  <si>
-    <t>Phone Number :</t>
-  </si>
-  <si>
-    <t>082121884879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email : </t>
-  </si>
-  <si>
-    <t>dzulfikrialfik@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website : </t>
-  </si>
-  <si>
-    <t>https://dzulfikrialfik.github.io/</t>
-  </si>
-  <si>
     <t>wpokt21-01</t>
   </si>
   <si>
@@ -315,12 +217,6 @@
   </si>
   <si>
     <t>Total Tagihan</t>
-  </si>
-  <si>
-    <t>Percepatan / Pemangkasan deadline</t>
-  </si>
-  <si>
-    <t>Catatan : Estimasi pengerjaan adalah 2-3 minggu atau 14-21 hari, percepatan / pemangkasan deadline dikenai Rp. 25.000 per pemotongan hari</t>
   </si>
   <si>
     <r>
@@ -346,39 +242,31 @@
     </r>
   </si>
   <si>
-    <t>Raja Adhi Wijaya</t>
+    <t>Pelunasan</t>
+  </si>
+  <si>
+    <t>Pelunasan Pembuatan Website Company Profile</t>
+  </si>
+  <si>
+    <t>Raja Wijaya Cirebon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="@\ \ "/>
     <numFmt numFmtId="166" formatCode="#_)"/>
     <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749961851863155"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,18 +468,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -614,12 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -681,54 +557,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.59996337778862885"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -893,386 +724,257 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyFill="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyFill="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyFont="0" applyFill="0" applyAlignment="0">
-      <alignment horizontal="left"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="6" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="8" applyFill="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="2" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="3" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="20">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="20">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="20" applyFont="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="20" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="20" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="20" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="20" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="16" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="10" borderId="3" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="14" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="14" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="15" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="14" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="30" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="12" borderId="8" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="19" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="27" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="15" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="15" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="20" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="19" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="16" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="30" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="32" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -1310,7 +1012,7 @@
     <cellStyle name="Total" xfId="11" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -1351,6 +1053,9 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1460,6 +1165,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1526,33 +1234,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -1568,12 +1249,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1771,19 +1446,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Invoice" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Billing Statement (Simple)" pivot="0" count="5" xr9:uid="{AFBC962A-F591-4C99-B214-BCDDFE05767E}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="lastTotalCell" dxfId="21"/>
-    </tableStyle>
-    <tableStyle name="Invoice" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="totalRow" dxfId="18"/>
       <tableStyleElement type="lastColumn" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="lastTotalCell" dxfId="16"/>
+    </tableStyle>
+    <tableStyle name="Invoice" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1865,49 +1540,79 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="SimpleInvoice" displayName="SimpleInvoice" ref="B8:G15" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B8:G15" xr:uid="{00000000-0009-0000-0100-000004000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item #" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qty"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Unit Price" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Discount"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Price" dataCellStyle="Currency">
-      <calculatedColumnFormula>IFERROR((D9*E9)-F9,"")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Invoice" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Invoice list with item #, description, quantity, unit price, discount and price"/>
-    </ext>
-  </extLst>
-</table>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Invoice_1st"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Dzulfikri's Company</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Majalengka</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>082121884879</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>dzulfikrialfik@gmail.com</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Cikijing - Majalengka, 45466</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Bill To:</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v xml:space="preserve">Invoice #: </v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>11102021-01</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15" t="str">
+            <v>Invoice Subtotal</v>
+          </cell>
+          <cell r="H15">
+            <v>3500000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6310A8F8-1E24-491D-ABE9-757AC02ACB8A}" name="Invoice" displayName="Invoice" ref="B9:G15" totalsRowCount="1" headerRowDxfId="12">
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6310A8F8-1E24-491D-ABE9-757AC02ACB8A}" name="Invoice" displayName="Invoice" ref="B9:G15" totalsRowCount="1" headerRowDxfId="9">
   <autoFilter ref="B9:G14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B12EBC3C-F87A-41B2-9E5F-C92F41037B70}" name="Date" dataDxfId="11" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{B12EBC3C-F87A-41B2-9E5F-C92F41037B70}" name="Date" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C67F6253-9ACC-4103-802B-915FFC96FBB8}" name="Type" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7733ECB4-3971-4996-A622-3EB61C7EDFBC}" name="Invoice #" dataDxfId="10" totalsRowDxfId="3">
-      <calculatedColumnFormula>Invoice!G4</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{C67F6253-9ACC-4103-802B-915FFC96FBB8}" name="Type" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7733ECB4-3971-4996-A622-3EB61C7EDFBC}" name="Invoice #" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>[1]Invoice_1st!H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{80B5EE90-7FFC-45EC-B091-BAAE9E6FAFA3}" name="Description" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C6F933E6-E2B7-4ACE-958E-36DE6BFA5DCC}" name="Payment" totalsRowLabel="Total Bayar" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C5260812-D547-4691-A325-69F84C4A8273}" name="Total Bayar" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{80B5EE90-7FFC-45EC-B091-BAAE9E6FAFA3}" name="Description" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{C6F933E6-E2B7-4ACE-958E-36DE6BFA5DCC}" name="Payment" totalsRowLabel="Total Bayar" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C5260812-D547-4691-A325-69F84C4A8273}" name="Total Bayar" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Invoice[[#This Row],[Payment]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2146,431 +1851,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="4" tint="-0.499984740745262"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="57.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="77" t="str">
-        <f>"Phone:   "</f>
-        <v xml:space="preserve">Phone:   </v>
-      </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="77" t="str">
-        <f>"Fax:    "</f>
-        <v xml:space="preserve">Fax:    </v>
-      </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="48">
-        <v>44480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="78" t="str">
-        <f>"Email:   "</f>
-        <v xml:space="preserve">Email:   </v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="str">
-        <f>"Invoice For: "</f>
-        <v xml:space="preserve">Invoice For: </v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <v>300000</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="20">
-        <f t="shared" ref="G9:G15" si="0">IFERROR((D9*E9)-F9,"")</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23">
-        <v>250000</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="20">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
-        <v>3</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>125000</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="20">
-        <f t="shared" si="0"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="23">
-        <v>200000</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24">
-        <v>5</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>300000</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="24">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="13">
-        <v>8</v>
-      </c>
-      <c r="E14" s="23">
-        <v>25000</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="20">
-        <f>IFERROR((D14*E14)-F14,"")</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
-        <v>7</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="23">
-        <v>125000</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="20">
-        <f t="shared" si="0"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="21">
-        <f>SUM(SimpleInvoice[Price])</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="2:7" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="21">
-        <f>IFERROR(G16*G17,"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="33.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="2:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="21">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <f>IFERROR((G16+G18+G19)-G20,"")</f>
-        <v>1100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0"/>
-  <mergeCells count="8">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F16:F20">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G20">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G20">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations xWindow="760" yWindow="637" count="34">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Total Amount is automatically calculated in this cell" sqref="G21" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the Deposit amount, if any" sqref="G20" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Other Amounts to be charged, if any" sqref="G19" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Sales Tax is automatically calculated in this cell" sqref="G18" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Tax Rate in this cell" sqref="G17" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The subtotal amount is automatically calculated in this cell" sqref="G16" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Price in this column under this heading" sqref="G8" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Discount in this column under this heading" sqref="F8" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Unit Price in this column under this heading" sqref="E8" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="D8" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="C8" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Item number in this column under this heading" sqref="B8" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in the cell at right" sqref="F5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in this cell" sqref="G5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice number in the cell at right" sqref="F4" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice number in this cell" sqref="G4" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter billing Address in this cell" sqref="C5" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter billing Address in the cell at right" sqref="B5" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To in the cell at right" sqref="B4" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Website in this cell" sqref="F3:G3" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Fax Number in this cell" sqref="D5:E5" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Phone Number in this cell" sqref="D4:E4" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company City, State, &amp; Zip Code in this cell" sqref="B3:C3" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="B1" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Simple Invoice in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="B2:C2" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in this cell" sqref="D6:E6" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Phone Number in this cell" sqref="D2:E2" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Fax Number in this cell" sqref="D3:E3" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Email address in this cell" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To in this cell" sqref="C4" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice For in the cell at right" sqref="B7" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice For in this cell" sqref="C7" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of days in which the Total is due to replace the first &lt;#&gt; in this cell and enter overdue service charge percent in the second &lt;#&gt;" sqref="B21:E21" xr:uid="{00000000-0002-0000-0000-000021000000}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter differentFirst="1" alignWithMargins="0">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08353CED-CB75-4CCB-BF65-7827C6E7E1F0}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2579,359 +1859,370 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="3" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="3" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="3" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="97" t="str">
-        <f>Invoice!B1</f>
+      <c r="B1" s="50" t="str">
+        <f>[1]Invoice_1st!B1</f>
         <v>Dzulfikri's Company</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="95" t="str">
-        <f>Invoice!C2</f>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="51" t="str">
+        <f>[1]Invoice_1st!C2</f>
         <v>Majalengka</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>[1]Invoice_1st!F2</f>
+        <v>082121884879</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="51" t="str">
+        <f>[1]Invoice_1st!C3</f>
+        <v>Cikijing - Majalengka, 45466</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="32" t="str">
+        <f>[1]Invoice_1st!H2</f>
+        <v>dzulfikrialfik@gmail.com</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="51" t="str">
+        <f>[1]Invoice_1st!H4</f>
+        <v>11102021-01</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="55" t="str">
+        <f>[1]Invoice_1st!H5</f>
+        <v>-</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>44482</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="35" t="str">
-        <f>Invoice!E2</f>
-        <v>082121884879</v>
-      </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="95" t="str">
-        <f>Invoice!C3</f>
-        <v>Cikijing - Majalengka, 45466</v>
-      </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="34" t="s">
+      <c r="D10" s="14" t="str">
+        <f>[1]Invoice_1st!H4</f>
+        <v>11102021-01</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="64" t="str">
-        <f>Invoice!G2</f>
-        <v>dzulfikrialfik@gmail.com</v>
-      </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-    </row>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="95" t="str">
-        <f>Invoice!G4</f>
-        <v>11102021-01</v>
-      </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="96">
-        <f>Invoice!G5</f>
-        <v>44480</v>
-      </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="61">
-        <v>44482</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="41" t="str">
-        <f>Invoice!G4</f>
-        <v>11102021-01</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="53">
+      <c r="F10" s="21">
         <v>400000</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="21">
         <f>Invoice[[#This Row],[Payment]]</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29">
+        <v>44495</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f>[1]Invoice_1st!H4</f>
+        <v>11102021-01</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="21">
+        <v>900000</v>
+      </c>
+      <c r="G11" s="21">
+        <f>Invoice[[#This Row],[Payment]]</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <f>Invoice[[#This Row],[Payment]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53">
+    <row r="13" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21">
         <f>Invoice[[#This Row],[Payment]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53">
+    <row r="14" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
         <f>Invoice[[#This Row],[Payment]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53">
-        <f>Invoice[[#This Row],[Payment]]</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="63">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="31">
         <f>SUBTOTAL(109,Invoice[Total Bayar])</f>
-        <v>400000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="62">
-        <f>Invoice!G16</f>
-        <v>1500000</v>
+      <c r="B16" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="30">
+        <f>[1]Invoice_1st!H15</f>
+        <v>3500000</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="62">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="30">
         <f>G16-Invoice[[#Totals],[Total Bayar]]</f>
-        <v>1100000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="B19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="89">
+      <c r="B20" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="46">
         <f>Customer_Name</f>
         <v>0</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="89" t="str">
+      <c r="B21" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="46" t="str">
         <f>Customer_ID</f>
         <v>wpokt21-01</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="91" t="str">
+      <c r="B22" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="48" t="str">
         <f>Statement_Number</f>
         <v>11102021-01</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85">
+      <c r="B23" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42" t="str">
         <f>Statement_Date</f>
-        <v>44480</v>
-      </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
+        <v>-</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="65">
+      <c r="B24" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="33">
         <f>Total_Due</f>
-        <v>400000</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+        <v>1300000</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="69" t="str">
+      <c r="B25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="37" t="str">
         <f>Remittance_Amount</f>
         <v>Remittance amount</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2957,7 +2248,7 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" xWindow="408" yWindow="548" count="43">
+  <dataValidations xWindow="408" yWindow="548" count="43">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company City, State, and Zip Code in this cell" sqref="C3 E2:E3" xr:uid="{71AF52E6-2C89-469B-9268-719265520EAA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in cell at right" sqref="E3" xr:uid="{00E4ADAB-0A91-4D9C-88A9-A91277193949}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Email address in this cell" sqref="G3" xr:uid="{C1443514-65E8-4DC5-95A7-04EE960EAB3B}"/>
@@ -3014,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531EECCC-BFDE-48FA-9ABD-C0E3A92DCB98}">
   <dimension ref="B3:D10"/>
   <sheetViews>
@@ -3029,78 +2320,78 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>30</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="28">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="28">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="28"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="28">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="28"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="28">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="28"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="28"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="28"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="28"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3108,7 +2399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9876E9D6-7FCD-4638-B266-443DA1D417F4}">
   <dimension ref="B3:H13"/>
   <sheetViews>
@@ -3118,195 +2409,195 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="29"/>
-    <col min="6" max="6" width="3.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="30">
-        <v>2</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="30">
-        <v>2</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="30">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="30">
-        <v>3</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="30">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="30">
-        <v>1</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="30">
-        <v>2</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="30">
-        <v>2</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
-        <v>3</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="30">
-        <v>3</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="30">
-        <v>4</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="30">
-        <v>4</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/rajawijaya/Web Invoice.xlsx
+++ b/rajawijaya/Web Invoice.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170107B-7767-441A-B135-AFF85FCF2DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20633236-F25D-4BB2-9AB8-21FBC5FDF3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="4" r:id="rId1"/>
@@ -33,6 +33,17 @@
     <definedName name="Total_Due">Invoice[[#Totals],[Total Bayar]]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -258,10 +269,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#_)"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="#_)"/>
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -761,10 +772,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,13 +793,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="6">
@@ -839,7 +850,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -895,7 +906,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="20" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="10" borderId="3" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,13 +945,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="15" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="15" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="14" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="14" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="30" applyFont="1" applyBorder="1">
@@ -973,7 +984,7 @@
     <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="27" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,7 +1245,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1545,6 +1556,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Invoice_1st"/>
+      <sheetName val="Compro Dasena"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1589,11 +1601,9 @@
           <cell r="G15" t="str">
             <v>Invoice Subtotal</v>
           </cell>
-          <cell r="H15">
-            <v>3500000</v>
-          </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1859,23 +1869,23 @@
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="G17" sqref="B1:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="3" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="9" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="50" t="str">
         <f>[1]Invoice_1st!B1</f>
         <v>Dzulfikri's Company</v>
@@ -1886,7 +1896,7 @@
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1904,7 +1914,7 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="C3" s="51" t="str">
         <f>[1]Invoice_1st!C3</f>
@@ -1920,7 +1930,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +1940,7 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
@@ -1946,7 +1956,7 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +1972,7 @@
       </c>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>43</v>
       </c>
@@ -1977,7 +1987,7 @@
       </c>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="53" t="s">
         <v>44</v>
       </c>
@@ -1990,7 +2000,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="29">
         <v>44482</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="29">
         <v>44495</v>
       </c>
@@ -2054,7 +2064,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2065,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -2076,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2087,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -2100,7 +2110,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="38" t="s">
         <v>60</v>
       </c>
@@ -2111,11 +2121,10 @@
         <v>59</v>
       </c>
       <c r="G16" s="30">
-        <f>[1]Invoice_1st!H15</f>
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -2125,10 +2134,10 @@
       </c>
       <c r="G17" s="30">
         <f>G16-Invoice[[#Totals],[Total Bayar]]</f>
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -2136,7 +2145,7 @@
       <c r="F18" s="45"/>
       <c r="G18" s="45"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2155,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="40" t="s">
         <v>50</v>
       </c>
@@ -2159,7 +2168,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="40" t="s">
         <v>43</v>
       </c>
@@ -2172,7 +2181,7 @@
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="40" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2194,7 @@
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="40" t="s">
         <v>41</v>
       </c>
@@ -2198,7 +2207,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="44"/>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="40" t="s">
         <v>51</v>
       </c>
@@ -2211,7 +2220,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="19" t="s">
         <v>52</v>
       </c>
@@ -2295,7 +2304,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.59055118110236227" bottom="0.98425196850393704" header="0.11811023622047245" footer="0.51181102362204722"/>
-  <pageSetup scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="62" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -2310,16 +2319,16 @@
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2339,7 +2348,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2348,7 +2357,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2357,7 +2366,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2366,7 +2375,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2375,7 +2384,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2384,7 +2393,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2407,20 +2416,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="6" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -2460,7 +2469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -2480,7 +2489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -2560,7 +2569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>3</v>
       </c>
@@ -2580,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>4</v>
       </c>
